--- a/media/project/examples/Hammers Efficiencies example.xlsx
+++ b/media/project/examples/Hammers Efficiencies example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACKER ADII (OEO-H-655)</t>
+          <t>SIMCO (OEO-H-813)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Acker ADII (OEO-H-655)</t>
+          <t>ACKER SOILMAX (OEO-H-650)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ACKER ADDII (OEO-H-655)</t>
+          <t>ACKER ADII (OEO-H-655)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -482,36 +482,6 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CRAWL-RG (OEO-H-815)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SIMCO (OEO-H-813)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ACKER SOILMAX (OEO-H-650)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
         <v>70</v>
       </c>
     </row>
